--- a/knowledge/data/irc.xlsx
+++ b/knowledge/data/irc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="133" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -202,7 +202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -221,24 +221,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge/data/irc.xlsx
+++ b/knowledge/data/irc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="133" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="185" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
